--- a/outdata/test_use2014.xlsx
+++ b/outdata/test_use2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry.sharepoint.com/sites/KT_SAlueellinentilinpitojrjestelm/Shared Documents/General/koodi/alta/outdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne.huovari\Pellervon Taloustutkimus PTT ry\KT_S Alueellinen tilinpito - Documents\General\koodi\alta\outdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F93EA8CC954A4C6734E5BCBC74D9C04BB787AA3D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1F6A7DD2-A49D-413A-8526-29178C70F64D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_F93EA8CC954A4C6734E5BCBC74D9C04BB787AA3D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9749E84B-8F91-4E74-A5E3-E599A30E1228}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uusimaa" sheetId="1" r:id="rId1"/>
@@ -708,13 +708,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -940,7 +940,7 @@
         <v>156.13808433688246</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>700.59668126399629</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>913.38746119958159</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>4981.4831172017148</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>732.45690990611911</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1894.0902576940134</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>4693.8891858607531</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>9018.145791053772</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>993.25262264721096</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>4274.838221705053</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>3985.3143176103472</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>3659.813114675926</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1271.3371754735708</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>2431.1313547380269</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>4006.3972437977791</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>10754.211570255458</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>1970.0967346578836</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>8108.6831633448601</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>3039.2086572535336</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>9331.7233157008905</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>4199.2742767333984</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>6303.5227510854602</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>6316.98974609375</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>11636.450470626354</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>4878.445090174675</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>5788.1367313861847</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>4002.7852071672678</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>8533.4496010793373</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>3297.5991574451327</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>79.886993408203125</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>133267.3273671768</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>43.653896331787109</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -4459,9 +4459,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>11.08594799041748</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>1.322512149810791</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>2.0102777481079102</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>21.079217910766602</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>9.4285831451416016</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>45.155937194824219</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>165.4986877441406</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>169.9613037109375</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>9.7581005096435547</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>107.4073944091797</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>91.996246337890625</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>105.6070022583008</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>28.520839691162109</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>20.433853149414059</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>7.6390628814697266</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>3.6553084850311279</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>45.379245758056641</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>2.855744361877441</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>102.5330505371094</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>7.7355842590332031</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>69.253570556640625</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>33.228900909423828</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>1.6971708536148069</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>0.19606369733810419</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>0.1015597805380821</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0.103329062461853</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>2.1025956087328271E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>21.025955200195309</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -8071,9 +8071,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>8.1580524444580078</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>0.97200495004653931</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>1.4781560897827151</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>15.512228012084959</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>6.9750542640686044</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>33.202629089355469</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>121.6489181518555</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>125.1876754760742</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>7.1661911010742188</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>79.008193969726563</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>67.710723876953125</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>77.658958435058594</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>21.015205383300781</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>15.05262660980225</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>5.6082687377929688</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>2.688808917999268</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>33.380523681640618</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>2.1006572246551509</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>75.422721862792969</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>5.6902194023132324</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>50.942241668701172</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>24.442850112915039</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>1.2484221458435061</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0.1442225128412247</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>7.4706368148326874E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>7.6007835566997528E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>1.2415327432790951E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>12.415328979492189</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -11683,9 +11683,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>19.344270706176761</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>2.3022441864013672</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>3.500923633575439</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>36.975692749023438</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>16.709524154663089</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>78.640045166015625</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>288.01681518554688</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>296.743408203125</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>17.026176452636719</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>187.14569091796881</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>160.3806457519531</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>183.86308288574219</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>49.577110290527337</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>35.611236572265618</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>13.28223133087158</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>6.3675274848937988</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>79.050399780273438</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>4.9746909141540527</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>178.6119079589844</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>13.475345611572269</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>120.6393356323242</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>57.884563446044922</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>2.9564623832702641</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>0.34154188632965088</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>0.17691658437252039</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>0.1799986660480499</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>1.541903493773589E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>15.41903781890869</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -15295,9 +15295,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>6.0244030952453613</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>0.71914482116699219</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>1.092751145362854</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>11.444294929504389</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>5.122685432434082</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>24.544940948486332</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>90.096076965332031</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>92.469924926757813</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>5.30963134765625</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>58.354377746582031</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>50.005569458007813</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>57.405254364013672</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>15.470829010009769</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>11.09530448913574</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>4.1511411666870117</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>1.9865081310272219</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>24.6617317199707</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>1.5519781112670901</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>55.722480773925781</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>4.2039680480957031</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>37.636432647705078</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>18.058525085449219</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>0.92234170436859131</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>0.1065524592995644</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>5.5193513631820679E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>5.6155044585466378E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>1.35166864367875E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>13.51668643951416</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -18907,9 +18907,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>33.126605987548828</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>3.9605152606964111</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>6.015164852142334</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>63.07269287109375</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>28.470478057861332</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>135.16374206542969</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>494.6092529296875</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>508.90322875976563</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>29.117916107177731</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>320.97805786132813</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>273.67947387695313</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>315.57666015625</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>85.0830078125</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>61.041595458984382</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>22.808551788330082</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>10.922450065612789</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>135.59800720214841</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>8.5332670211791992</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -21153,7 +21153,7 @@
         <v>306.37948608398438</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>23.114748001098629</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>206.93701171875</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>99.291488647460938</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>5.071326732635498</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>0.58585911989212036</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>0.30347141623497009</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>0.3087581992149353</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>1.041285546676818E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>10.41285419464111</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -22519,9 +22519,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>16.395559310913089</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -22839,7 +22839,7 @@
         <v>1.958860397338867</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>2.9789104461669922</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>31.279933929443359</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>13.993906021118161</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>66.840423583984375</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>245.35150146484381</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>251.64176940917969</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>14.47529983520508</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>158.76812744140619</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>136.2986145019531</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>156.72221374511719</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>42.218421936035163</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>30.27496337890625</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -24230,7 +24230,7 @@
         <v>11.31571197509766</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -24444,7 +24444,7 @@
         <v>5.4043722152709961</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>67.093193054199219</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>4.2222166061401367</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>151.5983581542969</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>11.437057495117189</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -25193,7 +25193,7 @@
         <v>102.39137268066411</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -25300,7 +25300,7 @@
         <v>49.128913879394531</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>2.5092663764953609</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -25514,7 +25514,7 @@
         <v>0.28988009691238398</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>0.15015609562397</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>0.1527719646692276</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>4.906056894071753E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>4.9060573577880859</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -26131,9 +26131,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>15.95732402801514</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>1.905952095985413</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -26558,7 +26558,7 @@
         <v>2.8911430835723881</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>30.490007400512699</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -26772,7 +26772,7 @@
         <v>13.63887882232666</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -26879,7 +26879,7 @@
         <v>64.982032775878906</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>238.06707763671881</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -27093,7 +27093,7 @@
         <v>245.327392578125</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>14.070005416870121</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -27307,7 +27307,7 @@
         <v>154.43840026855469</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -27414,7 +27414,7 @@
         <v>131.73628234863281</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>152.47648620605469</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -27628,7 +27628,7 @@
         <v>41.148700714111328</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>29.472856521606449</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -27842,7 +27842,7 @@
         <v>11.00778388977051</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>5.2572231292724609</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -28163,7 +28163,7 @@
         <v>65.266403198242188</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>4.1072554588317871</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -28377,7 +28377,7 @@
         <v>147.46607971191409</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -28484,7 +28484,7 @@
         <v>11.12565231323242</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -28698,7 +28698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -28805,7 +28805,7 @@
         <v>99.603485107421875</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -28912,7 +28912,7 @@
         <v>47.791244506835938</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>2.4409446716308589</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>0.28198730945587158</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>0.14606767892837519</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -29340,7 +29340,7 @@
         <v>0.14861233532428739</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -29447,7 +29447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -29542,7 +29542,7 @@
         <v>2.753399108712529E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>27.533990859985352</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -29743,9 +29743,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29849,7 +29849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>1.4619383811950679</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>0.17422610521316531</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -30170,7 +30170,7 @@
         <v>0.26476126909255981</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -30277,7 +30277,7 @@
         <v>2.8082470893859859</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>1.2678836584091191</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>5.9516811370849609</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>21.836606979370121</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -30705,7 +30705,7 @@
         <v>22.488409042358398</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>1.2883931398391719</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -30919,7 +30919,7 @@
         <v>14.15496730804443</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>12.098262786865231</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -31133,7 +31133,7 @@
         <v>13.96489906311035</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -31240,7 +31240,7 @@
         <v>3.751477718353271</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -31347,7 +31347,7 @@
         <v>2.7156438827514648</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -31454,7 +31454,7 @@
         <v>1.005328893661499</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -31561,7 +31561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -31668,7 +31668,7 @@
         <v>0.48157772421836847</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -31775,7 +31775,7 @@
         <v>5.9786014556884766</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -31882,7 +31882,7 @@
         <v>0.37623712420463562</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -31989,7 +31989,7 @@
         <v>13.50872325897217</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>1.01914381980896</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -32310,7 +32310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -32417,7 +32417,7 @@
         <v>9.1239833831787109</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -32524,7 +32524,7 @@
         <v>4.3778243064880371</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -32631,7 +32631,7 @@
         <v>0.22359798848629001</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -32738,7 +32738,7 @@
         <v>2.5830898433923721E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>1.338024623692036E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>1.3613344170153139E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -33059,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>5.9072924329939269E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -33249,7 +33249,7 @@
         <v>5.907292366027832</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -33355,9 +33355,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33461,7 +33461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>33.474578857421882</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -33675,7 +33675,7 @@
         <v>3.9877793788909912</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -33782,7 +33782,7 @@
         <v>6.0527334213256836</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -33889,7 +33889,7 @@
         <v>64.328224182128906</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -33996,7 +33996,7 @@
         <v>28.942008972167969</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -34103,7 +34103,7 @@
         <v>136.2967224121094</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -34210,7 +34210,7 @@
         <v>498.39114379882813</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -34317,7 +34317,7 @@
         <v>514.72601318359375</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>29.528816223144531</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -34531,7 +34531,7 @@
         <v>323.31396484375</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -34638,7 +34638,7 @@
         <v>277.72647094726563</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>319.68417358398438</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -34852,7 +34852,7 @@
         <v>85.8643798828125</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -34959,7 +34959,7 @@
         <v>62.071361541748047</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>23.056613922119141</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -35280,7 +35280,7 @@
         <v>11.006057739257811</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -35387,7 +35387,7 @@
         <v>136.6359558105469</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -35494,7 +35494,7 @@
         <v>8.5985860824584961</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -35601,7 +35601,7 @@
         <v>308.73641967773438</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>23.291681289672852</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -35815,7 +35815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -35922,7 +35922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -36029,7 +36029,7 @@
         <v>208.52104187011719</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -36136,7 +36136,7 @@
         <v>100.0515213012695</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -36243,7 +36243,7 @@
         <v>5.1101460456848136</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -36350,7 +36350,7 @@
         <v>0.5903436541557312</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -36457,7 +36457,7 @@
         <v>0.305794358253479</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -36564,7 +36564,7 @@
         <v>0.31112164258956909</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -36766,7 +36766,7 @@
         <v>1.0613101508738509E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -36861,7 +36861,7 @@
         <v>10.61310386657715</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -36967,9 +36967,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37073,7 +37073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -37180,7 +37180,7 @@
         <v>0.8646397590637207</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -37287,7 +37287,7 @@
         <v>0.1030477657914162</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -37394,7 +37394,7 @@
         <v>0.15693402290344241</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -37501,7 +37501,7 @@
         <v>1.6467094421386721</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -37608,7 +37608,7 @@
         <v>0.75038361549377441</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -37715,7 +37715,7 @@
         <v>3.5235681533813481</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -37822,7 +37822,7 @@
         <v>12.90513229370117</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -37929,7 +37929,7 @@
         <v>13.24028396606445</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -38036,7 +38036,7 @@
         <v>0.76190733909606934</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -38143,7 +38143,7 @@
         <v>8.3611736297607422</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -38250,7 +38250,7 @@
         <v>7.1920027732849121</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -38357,7 +38357,7 @@
         <v>8.2485742568969727</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -38464,7 +38464,7 @@
         <v>2.2248153686523442</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -38571,7 +38571,7 @@
         <v>1.6078100204467769</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -38678,7 +38678,7 @@
         <v>0.59453010559082031</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -38785,7 +38785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -38892,7 +38892,7 @@
         <v>0.28426462411880488</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -38999,7 +38999,7 @@
         <v>3.5290355682373051</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -39106,7 +39106,7 @@
         <v>0.2220844179391861</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -39213,7 +39213,7 @@
         <v>7.9737706184387207</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -39320,7 +39320,7 @@
         <v>0.60157793760299683</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -39427,7 +39427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -39534,7 +39534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -39641,7 +39641,7 @@
         <v>5.3856849670410156</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -39748,7 +39748,7 @@
         <v>2.5841324329376221</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -39855,7 +39855,7 @@
         <v>0.13198493421077731</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -39962,7 +39962,7 @@
         <v>1.524740550667048E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -40069,7 +40069,7 @@
         <v>7.8980615362524986E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -40176,7 +40176,7 @@
         <v>8.0356542021036148E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -40283,7 +40283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -40378,7 +40378,7 @@
         <v>4.0049438765343842E-10</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -40473,7 +40473,7 @@
         <v>0.40049442648887629</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -40579,9 +40579,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40685,7 +40685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -40792,7 +40792,7 @@
         <v>38.639518737792969</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -40899,7 +40899,7 @@
         <v>4.6106715202331543</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -41006,7 +41006,7 @@
         <v>7.0164585113525391</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -41113,7 +41113,7 @@
         <v>73.646461486816406</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -41220,7 +41220,7 @@
         <v>33.224124908447273</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -41327,7 +41327,7 @@
         <v>157.62174987792969</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -41434,7 +41434,7 @@
         <v>576.9879150390625</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -41541,7 +41541,7 @@
         <v>590.2659912109375</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -41648,7 +41648,7 @@
         <v>33.893299102783203</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>374.09701538085938</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -41862,7 +41862,7 @@
         <v>320.10919189453119</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -41969,7 +41969,7 @@
         <v>367.94976806640619</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -42076,7 +42076,7 @@
         <v>99.090438842773438</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -42183,7 +42183,7 @@
         <v>71.17120361328125</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -42290,7 +42290,7 @@
         <v>26.60414886474609</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -42397,7 +42397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -42504,7 +42504,7 @@
         <v>12.728366851806641</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -42611,7 +42611,7 @@
         <v>158.01776123046881</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -42718,7 +42718,7 @@
         <v>9.9441566467285156</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -42825,7 +42825,7 @@
         <v>357.0325927734375</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -42932,7 +42932,7 @@
         <v>26.93653678894043</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -43039,7 +43039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -43146,7 +43146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -43253,7 +43253,7 @@
         <v>241.1519470214844</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -43360,7 +43360,7 @@
         <v>115.7083206176758</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -43467,7 +43467,7 @@
         <v>5.9098191261291504</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -43574,7 +43574,7 @@
         <v>0.68272501230239868</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -43681,7 +43681,7 @@
         <v>0.35364732146263123</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -43788,7 +43788,7 @@
         <v>0.35980823636054993</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -43895,7 +43895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -43990,7 +43990,7 @@
         <v>1.882323630297833E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -44085,7 +44085,7 @@
         <v>18.823234558105469</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -44191,9 +44191,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -44297,7 +44297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -44404,7 +44404,7 @@
         <v>39.08953857421875</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -44511,7 +44511,7 @@
         <v>4.6682276725769043</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -44618,7 +44618,7 @@
         <v>7.0973005294799796</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -44725,7 +44725,7 @@
         <v>74.206161499023438</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -44832,7 +44832,7 @@
         <v>33.214107513427727</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -44939,7 +44939,7 @@
         <v>159.25981140136719</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -45046,7 +45046,7 @@
         <v>582.9862060546875</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -45153,7 +45153,7 @@
         <v>597.54083251953125</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -45260,7 +45260,7 @@
         <v>34.343944549560547</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -45367,7 +45367,7 @@
         <v>378.38528442382813</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -45474,7 +45474,7 @@
         <v>323.654541015625</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -45581,7 +45581,7 @@
         <v>371.97479248046881</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -45688,7 +45688,7 @@
         <v>100.28675842285161</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -45795,7 +45795,7 @@
         <v>71.857994079589844</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -45902,7 +45902,7 @@
         <v>26.862226486206051</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -46009,7 +46009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -46116,7 +46116,7 @@
         <v>12.882205009460449</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -46223,7 +46223,7 @@
         <v>159.92759704589841</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>10.06434345245361</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -46437,7 +46437,7 @@
         <v>361.34512329101563</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -46544,7 +46544,7 @@
         <v>27.26209831237793</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -46651,7 +46651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -46758,7 +46758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -46865,7 +46865,7 @@
         <v>244.06657409667969</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -46972,7 +46972,7 @@
         <v>117.106803894043</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -47079,7 +47079,7 @@
         <v>5.9812469482421884</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -47186,7 +47186,7 @@
         <v>0.69097656011581421</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -47293,7 +47293,7 @@
         <v>0.35792160034179688</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -47400,7 +47400,7 @@
         <v>0.36415696144103998</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -47507,7 +47507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -47602,7 +47602,7 @@
         <v>1.0613101508738509E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -47697,7 +47697,7 @@
         <v>10.61310386657715</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -47803,9 +47803,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47909,7 +47909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -48016,7 +48016,7 @@
         <v>14.952175140380859</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -48123,7 +48123,7 @@
         <v>1.780179619789124</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -48230,7 +48230,7 @@
         <v>2.7091009616851811</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -48337,7 +48337,7 @@
         <v>28.312582015991211</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>12.748495101928709</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -48551,7 +48551,7 @@
         <v>60.805702209472663</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -48658,7 +48658,7 @@
         <v>222.82049560546881</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -48765,7 +48765,7 @@
         <v>228.44902038574219</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -48872,7 +48872,7 @@
         <v>13.084671974182131</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -48979,7 +48979,7 @@
         <v>144.49867248535159</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -49086,7 +49086,7 @@
         <v>123.6209716796875</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -49193,7 +49193,7 @@
         <v>142.15470886230469</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -49300,7 +49300,7 @@
         <v>38.278766632080078</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -49407,7 +49407,7 @@
         <v>27.479045867919918</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -49514,7 +49514,7 @@
         <v>10.2595100402832</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -49621,7 +49621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -49728,7 +49728,7 @@
         <v>4.9194502830505371</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -49835,7 +49835,7 @@
         <v>61.073078155517578</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -49942,7 +49942,7 @@
         <v>3.8433668613433838</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -50049,7 +50049,7 @@
         <v>137.99005126953119</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -50156,7 +50156,7 @@
         <v>10.410837173461911</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -50263,7 +50263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -50370,7 +50370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -50477,7 +50477,7 @@
         <v>93.204032897949219</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -50584,7 +50584,7 @@
         <v>44.720691680908203</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -50691,7 +50691,7 @@
         <v>2.2841157913208008</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -50798,7 +50798,7 @@
         <v>0.26386982202529907</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -50905,7 +50905,7 @@
         <v>0.13668292760848999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -51012,7 +51012,7 @@
         <v>0.13906408846378329</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -51119,7 +51119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -51214,7 +51214,7 @@
         <v>6.3077871814698483E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -51309,7 +51309,7 @@
         <v>6.3077878952026367</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -51415,9 +51415,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51521,7 +51521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -51628,7 +51628,7 @@
         <v>41.936737060546882</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -51735,7 +51735,7 @@
         <v>4.9999260902404794</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -51842,7 +51842,7 @@
         <v>7.6038460731506348</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -51949,7 +51949,7 @@
         <v>79.789627075195313</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -52056,7 +52056,7 @@
         <v>35.483283996582031</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -52163,7 +52163,7 @@
         <v>170.6396179199219</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -52270,7 +52270,7 @@
         <v>624.2154541015625</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -52377,7 +52377,7 @@
         <v>639.9959716796875</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -52484,7 +52484,7 @@
         <v>36.774524688720703</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -52591,7 +52591,7 @@
         <v>405.405029296875</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -52698,7 +52698,7 @@
         <v>345.83917236328119</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -52805,7 +52805,7 @@
         <v>398.29537963867188</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -52912,7 +52912,7 @@
         <v>107.3853378295898</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -53019,7 +53019,7 @@
         <v>76.872459411621094</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -53126,7 +53126,7 @@
         <v>28.774459838867191</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -53233,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -53340,7 +53340,7 @@
         <v>13.79519557952881</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -53447,7 +53447,7 @@
         <v>171.26202392578119</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -53554,7 +53554,7 @@
         <v>10.77762603759766</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -53661,7 +53661,7 @@
         <v>386.95086669921881</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -53768,7 +53768,7 @@
         <v>29.194223403930661</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -53875,7 +53875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -53982,7 +53982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -54089,7 +54089,7 @@
         <v>261.36410522460938</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -54196,7 +54196,7 @@
         <v>125.4064254760742</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -54303,7 +54303,7 @@
         <v>6.4051508903503418</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -54410,7 +54410,7 @@
         <v>0.7399476170539856</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -54517,7 +54517,7 @@
         <v>0.38328829407691961</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -54624,7 +54624,7 @@
         <v>0.38996559381484991</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -54731,7 +54731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -54826,7 +54826,7 @@
         <v>1.802224858238333E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -54921,7 +54921,7 @@
         <v>18.02225303649902</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -55027,9 +55027,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -55133,7 +55133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -55240,7 +55240,7 @@
         <v>16.832815170288089</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -55347,7 +55347,7 @@
         <v>2.0089023113250728</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -55454,7 +55454,7 @@
         <v>3.0521771907806401</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -55561,7 +55561,7 @@
         <v>31.915836334228519</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -55668,7 +55668,7 @@
         <v>14.261178016662599</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -55775,7 +55775,7 @@
         <v>68.379402160644531</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -55882,7 +55882,7 @@
         <v>250.8638000488281</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -55989,7 +55989,7 @@
         <v>257.40261840820313</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -56096,7 +56096,7 @@
         <v>14.75868988037109</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -56203,7 +56203,7 @@
         <v>162.63722229003909</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -56310,7 +56310,7 @@
         <v>139.2616882324219</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -56417,7 +56417,7 @@
         <v>159.9267578125</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -56524,7 +56524,7 @@
         <v>43.173973083496087</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -56631,7 +56631,7 @@
         <v>30.8709716796875</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -56738,7 +56738,7 @@
         <v>11.5505428314209</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -56845,7 +56845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -56952,7 +56952,7 @@
         <v>5.5347995758056641</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -57059,7 +57059,7 @@
         <v>68.71240234375</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -57166,7 +57166,7 @@
         <v>4.3241143226623544</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -57273,7 +57273,7 @@
         <v>155.2527160644531</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -57380,7 +57380,7 @@
         <v>11.713076591491699</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -57487,7 +57487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -57594,7 +57594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -57701,7 +57701,7 @@
         <v>104.86244964599609</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -57808,7 +57808,7 @@
         <v>50.3145751953125</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -57915,7 +57915,7 @@
         <v>2.56982421875</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -58022,7 +58022,7 @@
         <v>0.29687595367431641</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -58129,7 +58129,7 @@
         <v>0.15377990901470179</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -58236,7 +58236,7 @@
         <v>0.15645891427993769</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -58343,7 +58343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -58438,7 +58438,7 @@
         <v>5.6069215936815908E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -58533,7 +58533,7 @@
         <v>5.6069216728210449</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -58639,9 +58639,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -58745,7 +58745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -58852,7 +58852,7 @@
         <v>49.701564788818359</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -58959,7 +58959,7 @@
         <v>5.923309326171875</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -59066,7 +59066,7 @@
         <v>9.0025720596313477</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -59173,7 +59173,7 @@
         <v>94.407127380371094</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -59280,7 +59280,7 @@
         <v>42.326206207275391</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -59387,7 +59387,7 @@
         <v>202.26264953613281</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -59494,7 +59494,7 @@
         <v>739.3028564453125</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -59601,7 +59601,7 @@
         <v>757.37591552734375</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -59708,7 +59708,7 @@
         <v>43.533287048339837</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -59815,7 +59815,7 @@
         <v>480.25375366210938</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -59922,7 +59922,7 @@
         <v>409.90951538085938</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -60029,7 +60029,7 @@
         <v>472.47845458984381</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -60136,7 +60136,7 @@
         <v>127.54722595214839</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -60243,7 +60243,7 @@
         <v>91.296310424804688</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -60350,7 +60350,7 @@
         <v>34.069683074951172</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -60457,7 +60457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -60564,7 +60564,7 @@
         <v>16.3401985168457</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -60671,7 +60671,7 @@
         <v>202.8572692871094</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -60778,7 +60778,7 @@
         <v>12.76593494415283</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -60885,7 +60885,7 @@
         <v>458.3349609375</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -60992,7 +60992,7 @@
         <v>34.580112457275391</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -61099,7 +61099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -61206,7 +61206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -61313,7 +61313,7 @@
         <v>309.58181762695313</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -61420,7 +61420,7 @@
         <v>148.54200744628909</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -61527,7 +61527,7 @@
         <v>7.5868039131164551</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -61634,7 +61634,7 @@
         <v>0.87645673751831055</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -61741,7 +61741,7 @@
         <v>0.45399916172027588</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -61848,7 +61848,7 @@
         <v>0.46190831065177917</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -61955,7 +61955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -62050,7 +62050,7 @@
         <v>3.103831858197736E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -62145,7 +62145,7 @@
         <v>3.1038322448730469</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -62251,9 +62251,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -62357,7 +62357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -62464,7 +62464,7 @@
         <v>13.304618835449221</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -62571,7 +62571,7 @@
         <v>1.5876649618148799</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -62678,7 +62678,7 @@
         <v>2.4097251892089839</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -62785,7 +62785,7 @@
         <v>25.42313194274902</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -62892,7 +62892,7 @@
         <v>11.473972320556641</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -62999,7 +62999,7 @@
         <v>54.104198455810547</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -63106,7 +63106,7 @@
         <v>198.052490234375</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -63213,7 +63213,7 @@
         <v>203.56402587890619</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -63320,7 +63320,7 @@
         <v>11.654915809631349</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -63427,7 +63427,7 @@
         <v>128.6610412597656</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -63534,7 +63534,7 @@
         <v>110.4478302001953</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -63641,7 +63641,7 @@
         <v>126.789680480957</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -63748,7 +63748,7 @@
         <v>34.220741271972663</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>24.579990386962891</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -63962,7 +63962,7 @@
         <v>9.1364707946777344</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -64069,7 +64069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -64176,7 +64176,7 @@
         <v>4.3776750564575204</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -64283,7 +64283,7 @@
         <v>54.347148895263672</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -64390,7 +64390,7 @@
         <v>3.4200999736785889</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -64497,7 +64497,7 @@
         <v>122.79624176025391</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -64604,7 +64604,7 @@
         <v>9.2643003463745117</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -64711,7 +64711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -64818,7 +64818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -64925,7 +64925,7 @@
         <v>82.939544677734375</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -65032,7 +65032,7 @@
         <v>39.795639038085938</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -65139,7 +65139,7 @@
         <v>2.032567977905273</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -65246,7 +65246,7 @@
         <v>0.23481003940105441</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -65353,7 +65353,7 @@
         <v>0.1216301545500755</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -65460,7 +65460,7 @@
         <v>0.1237490773200989</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -65567,7 +65567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -65662,7 +65662,7 @@
         <v>3.8046970018967841E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -65757,7 +65757,7 @@
         <v>3.8046977519989009</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -65863,9 +65863,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -65969,7 +65969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -66076,7 +66076,7 @@
         <v>4.0460996627807617</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -66183,7 +66183,7 @@
         <v>0.48232364654541021</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -66290,7 +66290,7 @@
         <v>0.73462343215942383</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -66397,7 +66397,7 @@
         <v>7.7273244857788086</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -66504,7 +66504,7 @@
         <v>3.444623470306396</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -66611,7 +66611,7 @@
         <v>16.47871017456055</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -66718,7 +66718,7 @@
         <v>60.441337585449219</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -66825,7 +66825,7 @@
         <v>61.98980712890625</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -66932,7 +66932,7 @@
         <v>3.549394845962524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -67039,7 +67039,7 @@
         <v>39.212799072265618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -67146,7 +67146,7 @@
         <v>33.583705902099609</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -67253,7 +67253,7 @@
         <v>38.581123352050781</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -67360,7 +67360,7 @@
         <v>10.418417930603029</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -67467,7 +67467,7 @@
         <v>7.4412984848022461</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -67574,7 +67574,7 @@
         <v>2.7833249568939209</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -67681,7 +67681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -67788,7 +67788,7 @@
         <v>1.3343715667724609</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -67895,7 +67895,7 @@
         <v>16.565708160400391</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -68002,7 +68002,7 @@
         <v>1.0424903631210329</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -68109,7 +68109,7 @@
         <v>37.429470062255859</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -68216,7 +68216,7 @@
         <v>2.8238775730133061</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -68323,7 +68323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -68430,7 +68430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -68537,7 +68537,7 @@
         <v>25.281038284301761</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -68644,7 +68644,7 @@
         <v>12.130221366882321</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -68751,7 +68751,7 @@
         <v>0.61955279111862183</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -68858,7 +68858,7 @@
         <v>7.1573115885257721E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -68965,7 +68965,7 @@
         <v>3.7074431777000427E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -69072,7 +69072,7 @@
         <v>3.772030770778656E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -69179,7 +69179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -69274,7 +69274,7 @@
         <v>1.091347279214006E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -69369,7 +69369,7 @@
         <v>10.913474082946779</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -69470,15 +69470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
     <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
@@ -69643,6 +69634,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -69650,14 +69650,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA4F11B-7565-42DF-904B-6F9D50DDE55C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80049F1D-10DA-4868-BE49-BF553BB954C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69676,19 +69668,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA4F11B-7565-42DF-904B-6F9D50DDE55C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7263051-1513-4075-AE8B-0696C729B930}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
     <ds:schemaRef ds:uri="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/outdata/test_use2014.xlsx
+++ b/outdata/test_use2014.xlsx
@@ -82003,4 +82003,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E221BD7-451E-40C1-B4A6-B0DADC989BAB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D3CA93C-B16D-438F-81BE-32314497606B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F947106-33A8-477C-A001-10E95A8CD6CD}"/>
 </file>